--- a/testdata/excel_test_case.xlsx
+++ b/testdata/excel_test_case.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="12375" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="25305" windowHeight="10545" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$J$2</definedName>
@@ -1305,7 +1305,7 @@
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1480,8 +1480,8 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>casetitle</t>
+          <t>title</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/testdata/excel_test_case.xlsx
+++ b/testdata/excel_test_case.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="25305" windowHeight="10545" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="12375" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$J$12</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="26">
+  <fonts count="30">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -48,10 +48,29 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color rgb="FF00FF00"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
     </font>
     <font>
@@ -207,6 +226,11 @@
       <name val="宋体"/>
       <b val="1"/>
       <color rgb="00FFCC00"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <b val="1"/>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="34">
@@ -550,137 +574,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,14 +726,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1303,10 +1345,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1316,11 +1358,13 @@
     <col width="20.625" customWidth="1" style="6" min="4" max="4"/>
     <col width="30.625" customWidth="1" style="6" min="5" max="5"/>
     <col width="40.625" customWidth="1" style="6" min="6" max="6"/>
-    <col width="20.625" customWidth="1" style="6" min="7" max="10"/>
+    <col width="20.625" customWidth="1" style="6" min="7" max="7"/>
+    <col width="20.625" customWidth="1" style="3" min="8" max="8"/>
+    <col width="20.625" customWidth="1" style="6" min="9" max="10"/>
     <col width="9" customWidth="1" style="6" min="11" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40" customHeight="1" s="8">
+    <row r="1" ht="40" customHeight="1" s="13">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
@@ -1380,17 +1424,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>获取base64验证码</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>http://192.168.50.202:9999/test-api/code</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>get</t>
+          <t>检查配置所属行业</t>
+        </is>
+      </c>
+      <c r="C2" s="7" t="inlineStr">
+        <is>
+          <t>/test-api/system/businessDict/enterpriseValue</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -1398,76 +1437,473 @@
           <t>200</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>操作成功</t>
-        </is>
-      </c>
-      <c r="I2" s="9" t="inlineStr">
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>"1":1</t>
+        </is>
+      </c>
+      <c r="I2" s="14" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="J2" s="10" t="inlineStr">
+      <c r="J2" s="15" t="inlineStr">
         <is>
           <t>Jason</t>
         </is>
       </c>
-      <c r="L2" s="7" t="n"/>
+      <c r="L2" s="11" t="n"/>
       <c r="M2" s="5" t="n"/>
     </row>
     <row r="3" ht="40" customFormat="1" customHeight="1" s="2">
-      <c r="A3" s="0" t="n"/>
-      <c r="B3" s="0" t="n"/>
-      <c r="C3" s="0" t="n"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>lqc_2</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>检查有值科目配置社保人数</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>/test-api/policylibrary/mark/standard-config/standardDictList/0</t>
+        </is>
+      </c>
       <c r="D3" s="0" t="n"/>
       <c r="E3" s="0" t="n"/>
       <c r="F3" s="0" t="n"/>
       <c r="G3" s="0" t="n"/>
-      <c r="H3" s="0" t="n"/>
-      <c r="I3" s="4" t="n"/>
-      <c r="J3" s="5" t="n"/>
-      <c r="L3" s="7" t="n"/>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>社保人数（人）</t>
+        </is>
+      </c>
+      <c r="I3" s="14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J3" s="15" t="inlineStr">
+        <is>
+          <t>Jason</t>
+        </is>
+      </c>
+      <c r="L3" s="11" t="n"/>
       <c r="M3" s="5" t="n"/>
     </row>
-    <row r="4" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="5" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="6" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="7" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="8" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="9" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="10" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="11" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="12" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="13" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="14" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="15" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="16" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="17" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="18" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="19" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="20" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="21" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="22" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="23" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="24" ht="40" customFormat="1" customHeight="1" s="2"/>
-    <row r="25" ht="40" customHeight="1" s="8"/>
-    <row r="26" ht="40" customHeight="1" s="8"/>
-    <row r="27" ht="40" customHeight="1" s="8"/>
-    <row r="28" ht="40" customHeight="1" s="8"/>
-    <row r="29" ht="40" customHeight="1" s="8"/>
-    <row r="30" ht="40" customHeight="1" s="8"/>
-    <row r="31" ht="40" customHeight="1" s="8"/>
-    <row r="32" ht="40" customHeight="1" s="8"/>
-    <row r="33" ht="40" customHeight="1" s="8"/>
-    <row r="34" ht="40" customHeight="1" s="8"/>
-    <row r="35" ht="40" customHeight="1" s="8"/>
-    <row r="36" ht="40" customHeight="1" s="8"/>
-    <row r="37" ht="40" customHeight="1" s="8"/>
-    <row r="38" ht="40" customHeight="1" s="8"/>
-    <row r="39" ht="40" customHeight="1" s="8"/>
+    <row r="4" ht="40" customFormat="1" customHeight="1" s="2">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>lqc_3</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>检查无值科目配置小微企业</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>test-api/policylibrary/mark/standard-config/standardDictList/1</t>
+        </is>
+      </c>
+      <c r="H4" s="8" t="inlineStr">
+        <is>
+          <t>大型企业</t>
+        </is>
+      </c>
+      <c r="I4" s="14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J4" s="15" t="inlineStr">
+        <is>
+          <t>Jason</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="40" customFormat="1" customHeight="1" s="2">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>lqc_4</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>级联匹配有值科目新增</t>
+        </is>
+      </c>
+      <c r="C5" s="10" t="inlineStr">
+        <is>
+          <t>/test-api/policylibrary/mark/standard-config/add</t>
+        </is>
+      </c>
+      <c r="D5" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="inlineStr">
+        <is>
+          <t>{"id":"","type":0,"conditionStandardDict":1,"calculateSymbolsDict":1,"numericalDict":1}</t>
+        </is>
+      </c>
+      <c r="H5" s="8" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I5" s="16" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="J5" s="15" t="inlineStr">
+        <is>
+          <t>Jason</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="40" customFormat="1" customHeight="1" s="2">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>lqc_5</t>
+        </is>
+      </c>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>级联匹配有值科目查询</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>/test-api/policylibrary/mark/standard-config/page</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F6" s="10" t="inlineStr">
+        <is>
+          <t>{"pageNo":1,"pageSize":10,"type":0,"conditionStandardDict":1}</t>
+        </is>
+      </c>
+      <c r="H6" s="8" t="inlineStr">
+        <is>
+          <t>获批项目（有效）</t>
+        </is>
+      </c>
+      <c r="I6" s="14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J6" s="15" t="inlineStr">
+        <is>
+          <t>Jason</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customFormat="1" customHeight="1" s="2">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>lqc_6</t>
+        </is>
+      </c>
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t>级联匹配有值科目编辑</t>
+        </is>
+      </c>
+      <c r="C7" s="10" t="inlineStr">
+        <is>
+          <t>/test-api/policylibrary/mark/standard-config/edit</t>
+        </is>
+      </c>
+      <c r="D7" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F7" s="10" t="inlineStr">
+        <is>
+          <t>{"id":"1826917223926804482","type":0,"conditionStandardDict":1,"enterpriseDict":null,"calculateSymbolsDict":2,"numericalDict":1,"dateStandardDict":null}</t>
+        </is>
+      </c>
+      <c r="H7" s="8" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I7" s="14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J7" s="15" t="inlineStr">
+        <is>
+          <t>Jason</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="40" customFormat="1" customHeight="1" s="2">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>lqc_7</t>
+        </is>
+      </c>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>级联匹配有值科目删除</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>test-api/policylibrary/mark/standard-config/delete/1826927040082948098</t>
+        </is>
+      </c>
+      <c r="D8" s="10" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I8" s="14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J8" s="15" t="inlineStr">
+        <is>
+          <t>Jason</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="40" customFormat="1" customHeight="1" s="2">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>lqc_8</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>无值科目新增</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>/test-api/policylibrary/mark/standard-config/add</t>
+        </is>
+      </c>
+      <c r="D9" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>{"id":"","type":1,"conditionStandardDict":128,"calculateSymbolsDict":3}</t>
+        </is>
+      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I9" s="16" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="J9" s="15" t="inlineStr">
+        <is>
+          <t>Jason</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="40" customFormat="1" customHeight="1" s="2">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>lqc_9</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>无值科目编辑</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>/test-api/policylibrary/mark/standard-config/edit</t>
+        </is>
+      </c>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>{"id":"1826921985099378689","type":1,"conditionStandardDict":127,"enterpriseDict":81,"calculateSymbolsDict":2,"numericalDict":null,"dateStandardDict":null}</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I10" s="14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J10" s="15" t="inlineStr">
+        <is>
+          <t>Jason</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="40" customFormat="1" customHeight="1" s="2">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>lqc_10</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>无值科目删除</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>test-api/policylibrary/mark/standard-config/delete/1826927260837556226</t>
+        </is>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I11" s="14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J11" s="15" t="inlineStr">
+        <is>
+          <t>Jason</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="40" customFormat="1" customHeight="1" s="2">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>lqc_11</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>无值科目查询</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>/test-api/policylibrary/mark/standard-config/page</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>{"pageNo":1,"pageSize":10,"type":1,"conditionStandardDict":74}</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>小型企业</t>
+        </is>
+      </c>
+      <c r="I12" s="14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J12" s="15" t="inlineStr">
+        <is>
+          <t>Jason</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="40" customFormat="1" customHeight="1" s="2">
+      <c r="H13" s="3" t="n"/>
+    </row>
+    <row r="14" ht="40" customFormat="1" customHeight="1" s="2">
+      <c r="H14" s="3" t="n"/>
+    </row>
+    <row r="15" ht="40" customFormat="1" customHeight="1" s="2">
+      <c r="H15" s="3" t="n"/>
+    </row>
+    <row r="16" ht="40" customFormat="1" customHeight="1" s="2">
+      <c r="H16" s="3" t="n"/>
+    </row>
+    <row r="17" ht="40" customFormat="1" customHeight="1" s="2">
+      <c r="H17" s="3" t="n"/>
+    </row>
+    <row r="18" ht="40" customFormat="1" customHeight="1" s="2">
+      <c r="H18" s="3" t="n"/>
+    </row>
+    <row r="19" ht="40" customFormat="1" customHeight="1" s="2">
+      <c r="H19" s="3" t="n"/>
+    </row>
+    <row r="20" ht="40" customFormat="1" customHeight="1" s="2">
+      <c r="H20" s="3" t="n"/>
+    </row>
+    <row r="21" ht="40" customFormat="1" customHeight="1" s="2">
+      <c r="H21" s="3" t="n"/>
+    </row>
+    <row r="22" ht="40" customFormat="1" customHeight="1" s="2">
+      <c r="H22" s="3" t="n"/>
+    </row>
+    <row r="23" ht="40" customFormat="1" customHeight="1" s="2">
+      <c r="H23" s="3" t="n"/>
+    </row>
+    <row r="24" ht="40" customFormat="1" customHeight="1" s="2">
+      <c r="H24" s="3" t="n"/>
+    </row>
+    <row r="25" ht="40" customHeight="1" s="13"/>
+    <row r="26" ht="40" customHeight="1" s="13"/>
+    <row r="27" ht="40" customHeight="1" s="13"/>
+    <row r="28" ht="40" customHeight="1" s="13"/>
+    <row r="29" ht="40" customHeight="1" s="13"/>
+    <row r="30" ht="40" customHeight="1" s="13"/>
+    <row r="31" ht="40" customHeight="1" s="13"/>
+    <row r="32" ht="40" customHeight="1" s="13"/>
+    <row r="33" ht="40" customHeight="1" s="13"/>
+    <row r="34" ht="40" customHeight="1" s="13"/>
+    <row r="35" ht="40" customHeight="1" s="13"/>
+    <row r="36" ht="40" customHeight="1" s="13"/>
+    <row r="37" ht="40" customHeight="1" s="13"/>
+    <row r="38" ht="40" customHeight="1" s="13"/>
+    <row r="39" ht="40" customHeight="1" s="13"/>
   </sheetData>
-  <autoFilter ref="A1:J2"/>
+  <autoFilter ref="A1:J12"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1480,13 +1916,13 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1" s="8">
+    <row r="1" ht="16.5" customHeight="1" s="13">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
@@ -1538,57 +1974,17 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="148.5" customHeight="1" s="8">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>lqc_2</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>多个sheet页执行用例</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>https://admin.liqicloud.com/prod-api/qiyelibrary/crm/project/reportable</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>{"Content-Type":"application/x-www-form-urlencoded"}</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>projectId=91110108783249629Y&amp;sign=c5a01e1219c2749589cc19a320fd8f2d</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="I2" s="9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J2" s="10" t="inlineStr">
-        <is>
-          <t>Jason</t>
-        </is>
-      </c>
+    <row r="2" ht="148.5" customHeight="1" s="13">
+      <c r="A2" s="2" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="3" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="4" t="n"/>
+      <c r="J2" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testdata/excel_test_case.xlsx
+++ b/testdata/excel_test_case.xlsx
@@ -1442,9 +1442,9 @@
           <t>"1":1</t>
         </is>
       </c>
-      <c r="I2" s="14" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="I2" s="16" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="J2" s="15" t="inlineStr">
@@ -1480,9 +1480,9 @@
           <t>社保人数（人）</t>
         </is>
       </c>
-      <c r="I3" s="14" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="I3" s="16" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="J3" s="15" t="inlineStr">
@@ -1514,9 +1514,9 @@
           <t>大型企业</t>
         </is>
       </c>
-      <c r="I4" s="14" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="I4" s="16" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="J4" s="15" t="inlineStr">
@@ -1598,9 +1598,9 @@
           <t>获批项目（有效）</t>
         </is>
       </c>
-      <c r="I6" s="14" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="I6" s="16" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="J6" s="15" t="inlineStr">
@@ -1640,9 +1640,9 @@
           <t>200</t>
         </is>
       </c>
-      <c r="I7" s="14" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="I7" s="16" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="J7" s="15" t="inlineStr">
@@ -1677,9 +1677,9 @@
           <t>200</t>
         </is>
       </c>
-      <c r="I8" s="14" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="I8" s="16" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="J8" s="15" t="inlineStr">
@@ -1761,9 +1761,9 @@
           <t>200</t>
         </is>
       </c>
-      <c r="I10" s="14" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="I10" s="16" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="J10" s="15" t="inlineStr">
@@ -1798,9 +1798,9 @@
           <t>200</t>
         </is>
       </c>
-      <c r="I11" s="14" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="I11" s="16" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="J11" s="15" t="inlineStr">
@@ -1840,9 +1840,9 @@
           <t>小型企业</t>
         </is>
       </c>
-      <c r="I12" s="14" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="I12" s="16" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="J12" s="15" t="inlineStr">

--- a/testdata/excel_test_case.xlsx
+++ b/testdata/excel_test_case.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="30">
+  <fonts count="26">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -51,19 +51,6 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
       <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FF00FF00"/>
       <sz val="11"/>
     </font>
     <font>
@@ -221,16 +208,6 @@
       <name val="宋体"/>
       <b val="1"/>
       <color rgb="00008000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <b val="1"/>
-      <color rgb="00FFCC00"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <b val="1"/>
-      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="34">
@@ -574,137 +551,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,32 +703,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1345,10 +1307,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1364,7 +1326,7 @@
     <col width="9" customWidth="1" style="6" min="11" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40" customHeight="1" s="13">
+    <row r="1" ht="40" customHeight="1" s="10">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
@@ -1412,7 +1374,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>tester</t>
+          <t>variable</t>
         </is>
       </c>
     </row>
@@ -1424,36 +1386,39 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>检查配置所属行业</t>
-        </is>
-      </c>
-      <c r="C2" s="7" t="inlineStr">
-        <is>
-          <t>/test-api/system/businessDict/enterpriseValue</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+          <t>新增项目</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>/test-api/policylibrary/policy/project/add</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>{"name":"新增测试项目1009","establishedTime":0,"salesIncome":0,"equipmentCost":0,"infomationCost":0,"staffNum":0,"developmentCost":0,"projectSumCost":0,"entryExitCost":0,"subsidyType":"[]","type":1,"phone":"","address":"123","matchIndustryIds":"[5098]","review":"1","matchIndustry":[{"name":"婴儿含乳面粉","level":4,"id":5098,"parentid":159}],"area":null,"city":{"id":"440300","name":"深圳市"},"province":{"id":"440000","name":"广东省"},"deptName":"测试部门南山区","deptId":105613,"rank":"3","rankName":"市级","reportInfoDTOS":[],"associationInfoDTOS":[],"extensionDTO":{"originText":"&lt;p&gt;1&lt;/p&gt;","preferentialPolicy":"","reportCondition":"","reportMaterial":"","fileVoList":[]},"fromSource":2}</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>200</t>
         </is>
       </c>
-      <c r="H2" s="8" t="inlineStr">
-        <is>
-          <t>"1":1</t>
-        </is>
-      </c>
-      <c r="I2" s="16" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="J2" s="15" t="inlineStr">
-        <is>
-          <t>Jason</t>
-        </is>
-      </c>
-      <c r="L2" s="11" t="n"/>
-      <c r="M2" s="5" t="n"/>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>"code":200</t>
+        </is>
+      </c>
+      <c r="I2" s="11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="40" customFormat="1" customHeight="1" s="2">
       <c r="A3" s="2" t="inlineStr">
@@ -1461,37 +1426,44 @@
           <t>lqc_2</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>检查有值科目配置社保人数</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>/test-api/policylibrary/mark/standard-config/standardDictList/0</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="n"/>
-      <c r="E3" s="0" t="n"/>
-      <c r="F3" s="0" t="n"/>
-      <c r="G3" s="0" t="n"/>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>社保人数（人）</t>
-        </is>
-      </c>
-      <c r="I3" s="16" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="J3" s="15" t="inlineStr">
-        <is>
-          <t>Jason</t>
-        </is>
-      </c>
-      <c r="L3" s="11" t="n"/>
-      <c r="M3" s="5" t="n"/>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>根据名称查询项目</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>/test-api/policylibrary/policy/project/select</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>{"pageNo":1,"pageSize":10,"direction":"create_time,bsc","userDeptIds":[],"deptCategoryIdList":[],"deptIds":[],"type":[],"name":"测试项目"}</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>"msg":"Success",</t>
+        </is>
+      </c>
+      <c r="I3" s="11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>$.data.list[0].id</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="40" customFormat="1" customHeight="1" s="2">
       <c r="A4" s="2" t="inlineStr">
@@ -1499,357 +1471,66 @@
           <t>lqc_3</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>检查无值科目配置小微企业</t>
-        </is>
-      </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>test-api/policylibrary/mark/standard-config/standardDictList/1</t>
-        </is>
-      </c>
-      <c r="H4" s="8" t="inlineStr">
-        <is>
-          <t>大型企业</t>
-        </is>
-      </c>
-      <c r="I4" s="16" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="J4" s="15" t="inlineStr">
-        <is>
-          <t>Jason</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="40" customFormat="1" customHeight="1" s="2">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>lqc_4</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="inlineStr">
-        <is>
-          <t>级联匹配有值科目新增</t>
-        </is>
-      </c>
-      <c r="C5" s="10" t="inlineStr">
-        <is>
-          <t>/test-api/policylibrary/mark/standard-config/add</t>
-        </is>
-      </c>
-      <c r="D5" s="10" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>删除项目</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>/test-api/policylibrary/policy/project/delete</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F5" s="10" t="inlineStr">
-        <is>
-          <t>{"id":"","type":0,"conditionStandardDict":1,"calculateSymbolsDict":1,"numericalDict":1}</t>
-        </is>
-      </c>
-      <c r="H5" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I5" s="16" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="J5" s="15" t="inlineStr">
-        <is>
-          <t>Jason</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="40" customFormat="1" customHeight="1" s="2">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>lqc_5</t>
-        </is>
-      </c>
-      <c r="B6" s="10" t="inlineStr">
-        <is>
-          <t>级联匹配有值科目查询</t>
-        </is>
-      </c>
-      <c r="C6" s="10" t="inlineStr">
-        <is>
-          <t>/test-api/policylibrary/mark/standard-config/page</t>
-        </is>
-      </c>
-      <c r="D6" s="10" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F6" s="10" t="inlineStr">
-        <is>
-          <t>{"pageNo":1,"pageSize":10,"type":0,"conditionStandardDict":1}</t>
-        </is>
-      </c>
-      <c r="H6" s="8" t="inlineStr">
-        <is>
-          <t>获批项目（有效）</t>
-        </is>
-      </c>
-      <c r="I6" s="16" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="J6" s="15" t="inlineStr">
-        <is>
-          <t>Jason</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="40" customFormat="1" customHeight="1" s="2">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>lqc_6</t>
-        </is>
-      </c>
-      <c r="B7" s="10" t="inlineStr">
-        <is>
-          <t>级联匹配有值科目编辑</t>
-        </is>
-      </c>
-      <c r="C7" s="10" t="inlineStr">
-        <is>
-          <t>/test-api/policylibrary/mark/standard-config/edit</t>
-        </is>
-      </c>
-      <c r="D7" s="10" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F7" s="10" t="inlineStr">
-        <is>
-          <t>{"id":"1826917223926804482","type":0,"conditionStandardDict":1,"enterpriseDict":null,"calculateSymbolsDict":2,"numericalDict":1,"dateStandardDict":null}</t>
-        </is>
-      </c>
-      <c r="H7" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I7" s="16" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="J7" s="15" t="inlineStr">
-        <is>
-          <t>Jason</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="40" customFormat="1" customHeight="1" s="2">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>lqc_7</t>
-        </is>
-      </c>
-      <c r="B8" s="10" t="inlineStr">
-        <is>
-          <t>级联匹配有值科目删除</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>test-api/policylibrary/mark/standard-config/delete/1826927040082948098</t>
-        </is>
-      </c>
-      <c r="D8" s="10" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I8" s="16" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="J8" s="15" t="inlineStr">
-        <is>
-          <t>Jason</t>
-        </is>
-      </c>
-    </row>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>["${variable1}"]</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>"code":200</t>
+        </is>
+      </c>
+      <c r="I4" s="11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="40" customFormat="1" customHeight="1" s="2"/>
+    <row r="6" ht="40" customFormat="1" customHeight="1" s="2"/>
+    <row r="7" ht="40" customFormat="1" customHeight="1" s="2"/>
+    <row r="8" ht="40" customFormat="1" customHeight="1" s="2"/>
     <row r="9" ht="40" customFormat="1" customHeight="1" s="2">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>lqc_8</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>无值科目新增</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>/test-api/policylibrary/mark/standard-config/add</t>
-        </is>
-      </c>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>{"id":"","type":1,"conditionStandardDict":128,"calculateSymbolsDict":3}</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I9" s="16" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="J9" s="15" t="inlineStr">
-        <is>
-          <t>Jason</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="n"/>
+      <c r="H9" s="8" t="n"/>
+      <c r="I9" s="9" t="n"/>
+      <c r="J9" s="5" t="n"/>
     </row>
     <row r="10" ht="40" customFormat="1" customHeight="1" s="2">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>lqc_9</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>无值科目编辑</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>/test-api/policylibrary/mark/standard-config/edit</t>
-        </is>
-      </c>
-      <c r="D10" s="10" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>{"id":"1826921985099378689","type":1,"conditionStandardDict":127,"enterpriseDict":81,"calculateSymbolsDict":2,"numericalDict":null,"dateStandardDict":null}</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I10" s="16" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="J10" s="15" t="inlineStr">
-        <is>
-          <t>Jason</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="n"/>
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="9" t="n"/>
+      <c r="J10" s="5" t="n"/>
     </row>
     <row r="11" ht="40" customFormat="1" customHeight="1" s="2">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>lqc_10</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>无值科目删除</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>test-api/policylibrary/mark/standard-config/delete/1826927260837556226</t>
-        </is>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I11" s="16" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="J11" s="15" t="inlineStr">
-        <is>
-          <t>Jason</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="n"/>
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="9" t="n"/>
+      <c r="J11" s="5" t="n"/>
     </row>
     <row r="12" ht="40" customFormat="1" customHeight="1" s="2">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>lqc_11</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>无值科目查询</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>/test-api/policylibrary/mark/standard-config/page</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>{"pageNo":1,"pageSize":10,"type":1,"conditionStandardDict":74}</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>小型企业</t>
-        </is>
-      </c>
-      <c r="I12" s="16" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="J12" s="15" t="inlineStr">
-        <is>
-          <t>Jason</t>
-        </is>
-      </c>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="9" t="n"/>
+      <c r="J12" s="5" t="n"/>
     </row>
     <row r="13" ht="40" customFormat="1" customHeight="1" s="2">
       <c r="H13" s="3" t="n"/>
@@ -1887,21 +1568,21 @@
     <row r="24" ht="40" customFormat="1" customHeight="1" s="2">
       <c r="H24" s="3" t="n"/>
     </row>
-    <row r="25" ht="40" customHeight="1" s="13"/>
-    <row r="26" ht="40" customHeight="1" s="13"/>
-    <row r="27" ht="40" customHeight="1" s="13"/>
-    <row r="28" ht="40" customHeight="1" s="13"/>
-    <row r="29" ht="40" customHeight="1" s="13"/>
-    <row r="30" ht="40" customHeight="1" s="13"/>
-    <row r="31" ht="40" customHeight="1" s="13"/>
-    <row r="32" ht="40" customHeight="1" s="13"/>
-    <row r="33" ht="40" customHeight="1" s="13"/>
-    <row r="34" ht="40" customHeight="1" s="13"/>
-    <row r="35" ht="40" customHeight="1" s="13"/>
-    <row r="36" ht="40" customHeight="1" s="13"/>
-    <row r="37" ht="40" customHeight="1" s="13"/>
-    <row r="38" ht="40" customHeight="1" s="13"/>
-    <row r="39" ht="40" customHeight="1" s="13"/>
+    <row r="25" ht="40" customHeight="1" s="10"/>
+    <row r="26" ht="40" customHeight="1" s="10"/>
+    <row r="27" ht="40" customHeight="1" s="10"/>
+    <row r="28" ht="40" customHeight="1" s="10"/>
+    <row r="29" ht="40" customHeight="1" s="10"/>
+    <row r="30" ht="40" customHeight="1" s="10"/>
+    <row r="31" ht="40" customHeight="1" s="10"/>
+    <row r="32" ht="40" customHeight="1" s="10"/>
+    <row r="33" ht="40" customHeight="1" s="10"/>
+    <row r="34" ht="40" customHeight="1" s="10"/>
+    <row r="35" ht="40" customHeight="1" s="10"/>
+    <row r="36" ht="40" customHeight="1" s="10"/>
+    <row r="37" ht="40" customHeight="1" s="10"/>
+    <row r="38" ht="40" customHeight="1" s="10"/>
+    <row r="39" ht="40" customHeight="1" s="10"/>
   </sheetData>
   <autoFilter ref="A1:J12"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1922,7 +1603,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1" s="13">
+    <row r="1" ht="16.5" customHeight="1" s="10">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
@@ -1974,7 +1655,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="148.5" customHeight="1" s="13">
+    <row r="2" ht="148.5" customHeight="1" s="10">
       <c r="A2" s="2" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="2" t="n"/>
